--- a/bin/Debug/net472/data.xlsx
+++ b/bin/Debug/net472/data.xlsx
@@ -73,6 +73,18 @@
   </x:si>
   <x:si>
     <x:t>youxiu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>优秀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>很优秀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>完美</x:t>
+  </x:si>
+  <x:si>
+    <x:t>很完美</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -645,6 +657,57 @@
         <x:v>18</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="1">
+        <x:v>45791</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="1">
+        <x:v>45791</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="1">
+        <x:v>45791</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
